--- a/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
+++ b/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IUH\hk5\PTUD_Java\Project\PharmacyManagementSystem_QLHT\src\main\resources\com\example\pharmacymanagementsystem_qlht\file_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hk5\PTUD_Java\Project\PharmacyManagementSystem_QLHT_NoFXML\src\main\resources\com\example\pharmacymanagementsystem_qlht\file_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D84860D-F278-4C70-B6E5-AF617BB56A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4365F2-0E41-4F1B-A359-7F88B3350285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1474" yWindow="1474" windowWidth="18515" windowHeight="10706" xr2:uid="{B361D742-DB5B-4134-BACD-5BD983BB8C99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B361D742-DB5B-4134-BACD-5BD983BB8C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -62,13 +62,16 @@
     <t>Xuất sứ</t>
   </si>
   <si>
-    <t>Mã nhóm dược lý</t>
-  </si>
-  <si>
-    <t>Mã loại hàng</t>
-  </si>
-  <si>
     <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Nhóm dược lý</t>
+  </si>
+  <si>
+    <t>Loại hàng</t>
+  </si>
+  <si>
+    <t>Yêu cầu kê đơn (X)</t>
   </si>
 </sst>
 </file>
@@ -440,57 +443,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCD2C1-ABFF-45D6-B2DB-22DBB5A30119}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.3828125" customWidth="1"/>
-    <col min="4" max="4" width="14.4609375" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" customWidth="1"/>
-    <col min="6" max="6" width="15.3828125" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" customWidth="1"/>
-    <col min="10" max="10" width="14.69140625" customWidth="1"/>
-    <col min="11" max="11" width="11.07421875" customWidth="1"/>
-    <col min="13" max="13" width="10.765625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
+++ b/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hk5\PTUD_Java\Project\PharmacyManagementSystem_QLHT_NoFXML\src\main\resources\com\example\pharmacymanagementsystem_qlht\file_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4365F2-0E41-4F1B-A359-7F88B3350285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECA43B-5739-4110-99A9-BC3F109F4162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B361D742-DB5B-4134-BACD-5BD983BB8C99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -62,16 +62,64 @@
     <t>Xuất sứ</t>
   </si>
   <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
     <t>Nhóm dược lý</t>
   </si>
   <si>
     <t>Loại hàng</t>
   </si>
   <si>
-    <t>Yêu cầu kê đơn (X)</t>
+    <t>Yêu cầu kê đơn (x)</t>
+  </si>
+  <si>
+    <t>pseudo</t>
+  </si>
+  <si>
+    <t>panadol</t>
+  </si>
+  <si>
+    <t>sorbitol</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Uống</t>
+  </si>
+  <si>
+    <t>1 hộp x 10 viên</t>
+  </si>
+  <si>
+    <t>123-123-123</t>
+  </si>
+  <si>
+    <t>124-124-124</t>
+  </si>
+  <si>
+    <t>125-125-125</t>
+  </si>
+  <si>
+    <t>Dược Quốc Gia</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>An thần</t>
+  </si>
+  <si>
+    <t>Nhuận tràng thẩm thấu</t>
+  </si>
+  <si>
+    <t>Kháng sinh</t>
+  </si>
+  <si>
+    <t>Thuốc Tây</t>
+  </si>
+  <si>
+    <t>Thuốc Lạ</t>
   </si>
 </sst>
 </file>
@@ -443,14 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCD2C1-ABFF-45D6-B2DB-22DBB5A30119}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -465,12 +514,12 @@
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -494,16 +543,116 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
+++ b/src/main/resources/com/example/pharmacymanagementsystem_qlht/file_Excel/MauThemThuoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hk5\PTUD_Java\Project\PharmacyManagementSystem_QLHT_NoFXML\src\main\resources\com\example\pharmacymanagementsystem_qlht\file_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECA43B-5739-4110-99A9-BC3F109F4162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93B46D-13F6-4990-932D-5DC70698E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B361D742-DB5B-4134-BACD-5BD983BB8C99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -69,57 +69,6 @@
   </si>
   <si>
     <t>Yêu cầu kê đơn (x)</t>
-  </si>
-  <si>
-    <t>pseudo</t>
-  </si>
-  <si>
-    <t>panadol</t>
-  </si>
-  <si>
-    <t>sorbitol</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Uống</t>
-  </si>
-  <si>
-    <t>1 hộp x 10 viên</t>
-  </si>
-  <si>
-    <t>123-123-123</t>
-  </si>
-  <si>
-    <t>124-124-124</t>
-  </si>
-  <si>
-    <t>125-125-125</t>
-  </si>
-  <si>
-    <t>Dược Quốc Gia</t>
-  </si>
-  <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>An thần</t>
-  </si>
-  <si>
-    <t>Nhuận tràng thẩm thấu</t>
-  </si>
-  <si>
-    <t>Kháng sinh</t>
-  </si>
-  <si>
-    <t>Thuốc Tây</t>
-  </si>
-  <si>
-    <t>Thuốc Lạ</t>
   </si>
 </sst>
 </file>
@@ -491,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCD2C1-ABFF-45D6-B2DB-22DBB5A30119}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,108 +498,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
